--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M122"/>
+  <dimension ref="A1:N122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -448,7 +453,7 @@
         <v>24.1212</v>
       </c>
       <c r="G2" t="n">
-        <v>-428308.6193</v>
+        <v>11.28000000000001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -483,7 +489,7 @@
         <v>12813.08</v>
       </c>
       <c r="G3" t="n">
-        <v>-441121.6993</v>
+        <v>11.30000000000001</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,6 +503,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -518,7 +525,7 @@
         <v>18540.1145</v>
       </c>
       <c r="G4" t="n">
-        <v>-422581.5848</v>
+        <v>11.32000000000001</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,6 +539,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -553,7 +561,7 @@
         <v>8924.93</v>
       </c>
       <c r="G5" t="n">
-        <v>-431506.5147999999</v>
+        <v>11.32000000000001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,6 +575,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +597,7 @@
         <v>12</v>
       </c>
       <c r="G6" t="n">
-        <v>-431494.5147999999</v>
+        <v>11.34000000000001</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,6 +611,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -623,7 +633,7 @@
         <v>2469.88</v>
       </c>
       <c r="G7" t="n">
-        <v>-433964.3948</v>
+        <v>11.32000000000001</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -637,6 +647,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -658,7 +669,7 @@
         <v>104188.9541</v>
       </c>
       <c r="G8" t="n">
-        <v>-538153.3489</v>
+        <v>11.30000000000001</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -672,6 +683,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -693,7 +705,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>-538141.3489</v>
+        <v>11.30000000000001</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -707,6 +719,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -728,7 +741,7 @@
         <v>49623.948</v>
       </c>
       <c r="G10" t="n">
-        <v>-488517.4009</v>
+        <v>11.36000000000001</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -742,6 +755,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -763,7 +777,7 @@
         <v>6858.0688</v>
       </c>
       <c r="G11" t="n">
-        <v>-488517.4009</v>
+        <v>11.38000000000001</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -777,6 +791,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -798,7 +813,7 @@
         <v>10</v>
       </c>
       <c r="G12" t="n">
-        <v>-488507.4009</v>
+        <v>11.44000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -812,6 +827,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -833,7 +849,7 @@
         <v>2440.4203</v>
       </c>
       <c r="G13" t="n">
-        <v>-490947.8212</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -847,6 +863,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -868,7 +885,7 @@
         <v>32942.3803</v>
       </c>
       <c r="G14" t="n">
-        <v>-523890.2015</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -882,6 +899,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -903,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>-523880.2015</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -917,6 +935,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -938,7 +957,7 @@
         <v>2542.6801</v>
       </c>
       <c r="G16" t="n">
-        <v>-526422.8816000001</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -952,6 +971,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -973,7 +993,7 @@
         <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>-526412.8816000001</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -987,6 +1007,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1008,13 +1029,13 @@
         <v>698.25</v>
       </c>
       <c r="G18" t="n">
-        <v>-527111.1316000001</v>
+        <v>11.48000000000001</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1022,6 +1043,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1043,13 +1065,13 @@
         <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1057,6 +1079,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1078,13 +1101,13 @@
         <v>8620.6896</v>
       </c>
       <c r="G20" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1092,6 +1115,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1113,7 +1137,7 @@
         <v>13832.0526</v>
       </c>
       <c r="G21" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.56000000000001</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1127,6 +1151,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1148,7 +1173,7 @@
         <v>10307.69</v>
       </c>
       <c r="G22" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.56000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1162,6 +1187,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1183,7 +1209,7 @@
         <v>2940.1426</v>
       </c>
       <c r="G23" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1197,6 +1223,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1218,7 +1245,7 @@
         <v>97069.85739999999</v>
       </c>
       <c r="G24" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1232,6 +1259,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1253,7 +1281,7 @@
         <v>21783.33</v>
       </c>
       <c r="G25" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1267,6 +1295,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1288,13 +1317,13 @@
         <v>10770.62</v>
       </c>
       <c r="G26" t="n">
-        <v>-527101.1316000001</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1302,6 +1331,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,13 +1353,13 @@
         <v>66918.4615</v>
       </c>
       <c r="G27" t="n">
-        <v>-460182.6701000001</v>
+        <v>11.62000000000001</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1337,6 +1367,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1358,7 +1389,7 @@
         <v>114217.3183</v>
       </c>
       <c r="G28" t="n">
-        <v>-574399.9884000001</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1372,6 +1403,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1393,13 +1425,13 @@
         <v>85662.9887</v>
       </c>
       <c r="G29" t="n">
-        <v>-574399.9884000001</v>
+        <v>11.58000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1407,6 +1439,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1428,13 +1461,13 @@
         <v>2334.1437</v>
       </c>
       <c r="G30" t="n">
-        <v>-574399.9884000001</v>
+        <v>11.56000000000001</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1442,6 +1475,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1463,13 +1497,13 @@
         <v>1010.6086</v>
       </c>
       <c r="G31" t="n">
-        <v>-574399.9884000001</v>
+        <v>11.54000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1477,6 +1511,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1498,13 +1533,13 @@
         <v>231290.0698</v>
       </c>
       <c r="G32" t="n">
-        <v>-805690.0582000001</v>
+        <v>11.48000000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1512,6 +1547,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1533,7 +1569,7 @@
         <v>27912.2108</v>
       </c>
       <c r="G33" t="n">
-        <v>-777777.8474000001</v>
+        <v>11.48000000000001</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1547,6 +1583,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1568,7 +1605,7 @@
         <v>22.9565</v>
       </c>
       <c r="G34" t="n">
-        <v>-777777.8474000001</v>
+        <v>11.48000000000001</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1582,6 +1619,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1603,7 +1641,7 @@
         <v>87641.39260000001</v>
       </c>
       <c r="G35" t="n">
-        <v>-865419.2400000001</v>
+        <v>11.46000000000001</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1617,6 +1655,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1638,7 +1677,7 @@
         <v>153804.7271</v>
       </c>
       <c r="G36" t="n">
-        <v>-865419.2400000001</v>
+        <v>11.44000000000002</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1652,6 +1691,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1673,7 +1713,7 @@
         <v>15910.31</v>
       </c>
       <c r="G37" t="n">
-        <v>-865419.2400000001</v>
+        <v>11.44000000000002</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1687,6 +1727,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1708,7 +1749,7 @@
         <v>20943.42</v>
       </c>
       <c r="G38" t="n">
-        <v>-865419.2400000001</v>
+        <v>11.42000000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1722,6 +1763,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1743,7 +1785,7 @@
         <v>3843.09</v>
       </c>
       <c r="G39" t="n">
-        <v>-869262.3300000001</v>
+        <v>11.36000000000002</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1757,6 +1799,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1778,7 +1821,7 @@
         <v>6436.927</v>
       </c>
       <c r="G40" t="n">
-        <v>-869262.3300000001</v>
+        <v>11.32000000000002</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1792,6 +1835,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1813,7 +1857,7 @@
         <v>36642.27</v>
       </c>
       <c r="G41" t="n">
-        <v>-869262.3300000001</v>
+        <v>11.28000000000002</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -1831,6 +1875,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1852,7 +1897,7 @@
         <v>3043.4513</v>
       </c>
       <c r="G42" t="n">
-        <v>-866218.8787000001</v>
+        <v>11.26000000000002</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -1874,6 +1919,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1895,7 +1941,7 @@
         <v>3132.9973</v>
       </c>
       <c r="G43" t="n">
-        <v>-869351.8760000002</v>
+        <v>11.22000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
@@ -1917,6 +1963,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1938,7 +1985,7 @@
         <v>30</v>
       </c>
       <c r="G44" t="n">
-        <v>-869321.8760000002</v>
+        <v>11.26000000000002</v>
       </c>
       <c r="H44" t="n">
         <v>1</v>
@@ -1956,6 +2003,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1977,7 +2025,7 @@
         <v>50</v>
       </c>
       <c r="G45" t="n">
-        <v>-869271.8760000002</v>
+        <v>11.32000000000002</v>
       </c>
       <c r="H45" t="n">
         <v>1</v>
@@ -1999,6 +2047,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,7 +2069,7 @@
         <v>3180.52</v>
       </c>
       <c r="G46" t="n">
-        <v>-872452.3960000002</v>
+        <v>11.34000000000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2040,6 +2089,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2061,7 +2111,7 @@
         <v>6558.5388</v>
       </c>
       <c r="G47" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.38000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2075,6 +2125,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2096,7 +2147,7 @@
         <v>32063.4138</v>
       </c>
       <c r="G48" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.44000000000002</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2110,6 +2161,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2131,7 +2183,7 @@
         <v>5880975.3538</v>
       </c>
       <c r="G49" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.46000000000002</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2145,6 +2197,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2166,7 +2219,7 @@
         <v>5773658.2854</v>
       </c>
       <c r="G50" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.46000000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2180,6 +2233,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2201,7 +2255,7 @@
         <v>5730731.4579</v>
       </c>
       <c r="G51" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2215,6 +2269,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2236,7 +2291,7 @@
         <v>5816585.1126</v>
       </c>
       <c r="G52" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2250,6 +2305,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2271,7 +2327,7 @@
         <v>5344390.0113</v>
       </c>
       <c r="G53" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2285,6 +2341,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2306,7 +2363,7 @@
         <v>85853.6548</v>
       </c>
       <c r="G54" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2320,6 +2377,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2341,7 +2399,7 @@
         <v>30.862</v>
       </c>
       <c r="G55" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2355,6 +2413,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2376,7 +2435,7 @@
         <v>3683776.6994</v>
       </c>
       <c r="G56" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2390,6 +2449,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2411,7 +2471,7 @@
         <v>9127942.264</v>
       </c>
       <c r="G57" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2425,6 +2485,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2446,7 +2507,7 @@
         <v>8834544.1198</v>
       </c>
       <c r="G58" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2460,6 +2521,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2481,7 +2543,7 @@
         <v>8932343.5012</v>
       </c>
       <c r="G59" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2495,6 +2557,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2516,7 +2579,7 @@
         <v>8932343.5012</v>
       </c>
       <c r="G60" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2530,6 +2593,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2551,7 +2615,7 @@
         <v>9030142.8826</v>
       </c>
       <c r="G61" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2565,6 +2629,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2586,7 +2651,7 @@
         <v>8905212.8454</v>
       </c>
       <c r="G62" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2600,6 +2665,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2621,7 +2687,7 @@
         <v>8646134.7686</v>
       </c>
       <c r="G63" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2635,6 +2701,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2656,7 +2723,7 @@
         <v>10441825.5892</v>
       </c>
       <c r="G64" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2670,6 +2737,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2691,7 +2759,7 @@
         <v>10278611.586</v>
       </c>
       <c r="G65" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2705,6 +2773,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2726,7 +2795,7 @@
         <v>10430887.3132</v>
       </c>
       <c r="G66" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2740,6 +2809,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2761,7 +2831,7 @@
         <v>10316680.5178</v>
       </c>
       <c r="G67" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2775,6 +2845,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2796,7 +2867,7 @@
         <v>10354749.4496</v>
       </c>
       <c r="G68" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2810,6 +2881,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2831,7 +2903,7 @@
         <v>10545094.1086</v>
       </c>
       <c r="G69" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2845,6 +2917,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2866,7 +2939,7 @@
         <v>10430887.3132</v>
       </c>
       <c r="G70" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2880,6 +2953,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2901,7 +2975,7 @@
         <v>10278611.586</v>
       </c>
       <c r="G71" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2915,6 +2989,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2936,7 +3011,7 @@
         <v>3437581.4769</v>
       </c>
       <c r="G72" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2950,6 +3025,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2971,7 +3047,7 @@
         <v>45454.5454</v>
       </c>
       <c r="G73" t="n">
-        <v>-865893.8572000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2985,6 +3061,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3006,7 +3083,7 @@
         <v>12</v>
       </c>
       <c r="G74" t="n">
-        <v>-865881.8572000002</v>
+        <v>11.52000000000001</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3020,6 +3097,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3041,7 +3119,7 @@
         <v>11.8803</v>
       </c>
       <c r="G75" t="n">
-        <v>-865869.9769000002</v>
+        <v>11.56000000000001</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3055,6 +3133,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3076,7 +3155,7 @@
         <v>5000</v>
       </c>
       <c r="G76" t="n">
-        <v>-865869.9769000002</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3090,6 +3169,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3111,7 +3191,7 @@
         <v>7566.8162</v>
       </c>
       <c r="G77" t="n">
-        <v>-865869.9769000002</v>
+        <v>11.64000000000001</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3125,6 +3205,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3146,7 +3227,7 @@
         <v>5000</v>
       </c>
       <c r="G78" t="n">
-        <v>-870869.9769000002</v>
+        <v>11.66000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3160,6 +3241,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3181,7 +3263,7 @@
         <v>17791.5811</v>
       </c>
       <c r="G79" t="n">
-        <v>-853078.3958000003</v>
+        <v>11.68000000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3195,6 +3277,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3216,7 +3299,7 @@
         <v>12</v>
       </c>
       <c r="G80" t="n">
-        <v>-853066.3958000003</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3230,6 +3313,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3251,13 +3335,13 @@
         <v>161641.6468</v>
       </c>
       <c r="G81" t="n">
-        <v>-691424.7490000003</v>
+        <v>11.74000000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3265,6 +3349,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3286,7 +3371,7 @@
         <v>21316.2058</v>
       </c>
       <c r="G82" t="n">
-        <v>-712740.9548000003</v>
+        <v>11.76000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3300,6 +3385,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3321,7 +3407,7 @@
         <v>12473.1648</v>
       </c>
       <c r="G83" t="n">
-        <v>-712740.9548000003</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3335,6 +3421,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3356,13 +3443,13 @@
         <v>115480.7312</v>
       </c>
       <c r="G84" t="n">
-        <v>-712740.9548000003</v>
+        <v>11.82000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3370,6 +3457,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3391,7 +3479,7 @@
         <v>23065.9794</v>
       </c>
       <c r="G85" t="n">
-        <v>-735806.9342000003</v>
+        <v>11.80000000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3405,6 +3493,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3426,13 +3515,13 @@
         <v>12</v>
       </c>
       <c r="G86" t="n">
-        <v>-735794.9342000003</v>
+        <v>11.78000000000001</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3440,6 +3529,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3461,13 +3551,13 @@
         <v>1373.0296</v>
       </c>
       <c r="G87" t="n">
-        <v>-735794.9342000003</v>
+        <v>11.78000000000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3475,6 +3565,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3496,7 +3587,7 @@
         <v>45.7128</v>
       </c>
       <c r="G88" t="n">
-        <v>-735794.9342000003</v>
+        <v>11.78000000000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3510,6 +3601,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3531,13 +3623,13 @@
         <v>4710</v>
       </c>
       <c r="G89" t="n">
-        <v>-740504.9342000003</v>
+        <v>11.76000000000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3545,6 +3637,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3566,13 +3659,13 @@
         <v>5022.7779</v>
       </c>
       <c r="G90" t="n">
-        <v>-745527.7121000002</v>
+        <v>11.74000000000001</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3580,6 +3673,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3601,13 +3695,13 @@
         <v>2810</v>
       </c>
       <c r="G91" t="n">
-        <v>-742717.7121000002</v>
+        <v>11.72000000000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3615,6 +3709,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3636,13 +3731,13 @@
         <v>87675.32339999999</v>
       </c>
       <c r="G92" t="n">
-        <v>-830393.0355000002</v>
+        <v>11.66000000000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3650,6 +3745,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3671,7 +3767,7 @@
         <v>37780.5882</v>
       </c>
       <c r="G93" t="n">
-        <v>-830393.0355000002</v>
+        <v>11.60000000000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3685,6 +3781,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3706,7 +3803,7 @@
         <v>40241.6498</v>
       </c>
       <c r="G94" t="n">
-        <v>-870634.6853000002</v>
+        <v>11.52000000000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3720,6 +3817,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3741,7 +3839,7 @@
         <v>10.101</v>
       </c>
       <c r="G95" t="n">
-        <v>-870624.5843000002</v>
+        <v>11.50000000000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3755,6 +3853,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3776,7 +3875,7 @@
         <v>6157.9702</v>
       </c>
       <c r="G96" t="n">
-        <v>-870624.5843000002</v>
+        <v>11.46000000000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3790,6 +3889,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3811,7 +3911,7 @@
         <v>61598.6268</v>
       </c>
       <c r="G97" t="n">
-        <v>-809025.9575000003</v>
+        <v>11.48000000000001</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3825,6 +3925,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3846,13 +3947,13 @@
         <v>12.3212</v>
       </c>
       <c r="G98" t="n">
-        <v>-809013.6363000002</v>
+        <v>11.52000000000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3860,6 +3961,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3881,7 +3983,7 @@
         <v>64575.331</v>
       </c>
       <c r="G99" t="n">
-        <v>-873588.9673000003</v>
+        <v>11.56000000000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3895,6 +3997,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3916,13 +4019,13 @@
         <v>40052.1551</v>
       </c>
       <c r="G100" t="n">
-        <v>-833536.8122000003</v>
+        <v>11.58000000000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -3930,6 +4033,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3951,13 +4055,13 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>-833536.8122000003</v>
+        <v>11.60000000000001</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -3965,6 +4069,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3986,13 +4091,13 @@
         <v>7734.9146</v>
       </c>
       <c r="G102" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.62000000000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4000,6 +4105,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4021,7 +4127,7 @@
         <v>4132.52</v>
       </c>
       <c r="G103" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.62000000000001</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4035,6 +4141,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4056,7 +4163,7 @@
         <v>77582.32919999999</v>
       </c>
       <c r="G104" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.66000000000001</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4070,6 +4177,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4091,7 +4199,7 @@
         <v>3760</v>
       </c>
       <c r="G105" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.68000000000001</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4105,6 +4213,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4126,7 +4235,7 @@
         <v>383.3333</v>
       </c>
       <c r="G106" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4140,6 +4249,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4161,7 +4271,7 @@
         <v>3760</v>
       </c>
       <c r="G107" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4175,6 +4285,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4196,13 +4307,13 @@
         <v>9326.6666</v>
       </c>
       <c r="G108" t="n">
-        <v>-825801.8976000003</v>
+        <v>11.70000000000001</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4210,6 +4321,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4231,7 +4343,7 @@
         <v>69083.9457</v>
       </c>
       <c r="G109" t="n">
-        <v>-894885.8433000003</v>
+        <v>11.66000000000001</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4245,6 +4357,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4266,13 +4379,13 @@
         <v>98335.29829999999</v>
       </c>
       <c r="G110" t="n">
-        <v>-796550.5450000003</v>
+        <v>11.64000000000001</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4280,6 +4393,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4301,7 +4415,7 @@
         <v>11389.53</v>
       </c>
       <c r="G111" t="n">
-        <v>-796550.5450000003</v>
+        <v>11.62000000000001</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4315,6 +4429,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4336,13 +4451,13 @@
         <v>11834.46</v>
       </c>
       <c r="G112" t="n">
-        <v>-808385.0050000002</v>
+        <v>11.56000000000001</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4350,6 +4465,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4371,13 +4487,13 @@
         <v>132198.0024</v>
       </c>
       <c r="G113" t="n">
-        <v>-808385.0050000002</v>
+        <v>11.50000000000001</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4385,6 +4501,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4406,13 +4523,13 @@
         <v>116676.8321</v>
       </c>
       <c r="G114" t="n">
-        <v>-808385.0050000002</v>
+        <v>11.48000000000001</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4420,6 +4537,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4441,13 +4559,13 @@
         <v>29869.8273</v>
       </c>
       <c r="G115" t="n">
-        <v>-808385.0050000002</v>
+        <v>11.44000000000001</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4455,6 +4573,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4476,13 +4595,13 @@
         <v>55317.7758</v>
       </c>
       <c r="G116" t="n">
-        <v>-863702.7808000003</v>
+        <v>11.38000000000001</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4490,6 +4609,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4511,13 +4631,13 @@
         <v>27611.6508</v>
       </c>
       <c r="G117" t="n">
-        <v>-863702.7808000003</v>
+        <v>11.36000000000001</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4525,6 +4645,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4546,7 +4667,7 @@
         <v>11805.0783</v>
       </c>
       <c r="G118" t="n">
-        <v>-863702.7808000003</v>
+        <v>11.34000000000001</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4560,6 +4681,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4581,7 +4703,7 @@
         <v>75990.4768</v>
       </c>
       <c r="G119" t="n">
-        <v>-939693.2576000004</v>
+        <v>11.30000000000001</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4595,6 +4717,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4616,7 +4739,7 @@
         <v>22321.4285</v>
       </c>
       <c r="G120" t="n">
-        <v>-939693.2576000004</v>
+        <v>11.26000000000001</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4630,6 +4753,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4651,7 +4775,7 @@
         <v>56642.6157</v>
       </c>
       <c r="G121" t="n">
-        <v>-939693.2576000004</v>
+        <v>11.24000000000001</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4665,6 +4789,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4686,7 +4811,7 @@
         <v>110768.0985</v>
       </c>
       <c r="G122" t="n">
-        <v>-939693.2576000004</v>
+        <v>11.22000000000001</v>
       </c>
       <c r="H122" t="n">
         <v>1</v>
@@ -4704,6 +4829,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N122"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="C2" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D2" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E2" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F2" t="n">
-        <v>24.1212</v>
+        <v>16410</v>
       </c>
       <c r="G2" t="n">
-        <v>11.28000000000001</v>
+        <v>-420556.7761</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -474,22 +474,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="C3" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="D3" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="E3" t="n">
-        <v>11.3</v>
+        <v>11.1</v>
       </c>
       <c r="F3" t="n">
-        <v>12813.08</v>
+        <v>1811.4666</v>
       </c>
       <c r="G3" t="n">
-        <v>11.30000000000001</v>
+        <v>-422368.2427</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -510,22 +510,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C4" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D4" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E4" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="F4" t="n">
-        <v>18540.1145</v>
+        <v>38460.7273</v>
       </c>
       <c r="G4" t="n">
-        <v>11.32000000000001</v>
+        <v>-383907.5154</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -558,10 +558,10 @@
         <v>11.2</v>
       </c>
       <c r="F5" t="n">
-        <v>8924.93</v>
+        <v>6181.0892</v>
       </c>
       <c r="G5" t="n">
-        <v>11.32000000000001</v>
+        <v>-383907.5154</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="C6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="E6" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F6" t="n">
-        <v>12</v>
+        <v>1984.5892</v>
       </c>
       <c r="G6" t="n">
-        <v>11.34000000000001</v>
+        <v>-383907.5154</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -618,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="D7" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="E7" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="F7" t="n">
-        <v>2469.88</v>
+        <v>3755.0178</v>
       </c>
       <c r="G7" t="n">
-        <v>11.32000000000001</v>
+        <v>-383907.5154</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -654,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="C8" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="D8" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="E8" t="n">
         <v>11.2</v>
       </c>
       <c r="F8" t="n">
-        <v>104188.9541</v>
+        <v>70088.02499999999</v>
       </c>
       <c r="G8" t="n">
-        <v>11.30000000000001</v>
+        <v>-313819.4904</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -693,19 +693,19 @@
         <v>11.4</v>
       </c>
       <c r="C9" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="D9" t="n">
         <v>11.4</v>
       </c>
       <c r="E9" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>11.30000000000001</v>
+        <v>-313841.4904</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -729,19 +729,19 @@
         <v>11.4</v>
       </c>
       <c r="C10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D10" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E10" t="n">
         <v>11.4</v>
       </c>
       <c r="F10" t="n">
-        <v>49623.948</v>
+        <v>11.5858</v>
       </c>
       <c r="G10" t="n">
-        <v>11.36000000000001</v>
+        <v>-313829.9046</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -762,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C11" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D11" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E11" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F11" t="n">
-        <v>6858.0688</v>
+        <v>2870.41</v>
       </c>
       <c r="G11" t="n">
-        <v>11.38000000000001</v>
+        <v>-316700.3146</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -798,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="C12" t="n">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="D12" t="n">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="E12" t="n">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="F12" t="n">
-        <v>10</v>
+        <v>79629.6296</v>
       </c>
       <c r="G12" t="n">
-        <v>11.44000000000001</v>
+        <v>-396329.9442</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -834,22 +834,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="C13" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="D13" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="E13" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="F13" t="n">
-        <v>2440.4203</v>
+        <v>112431.8758</v>
       </c>
       <c r="G13" t="n">
-        <v>11.50000000000001</v>
+        <v>-396329.9442</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C14" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="D14" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E14" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="F14" t="n">
-        <v>32942.3803</v>
+        <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>11.50000000000001</v>
+        <v>-396329.9442</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -906,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E15" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>27824.9262</v>
       </c>
       <c r="G15" t="n">
-        <v>11.52000000000001</v>
+        <v>-368505.018</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -942,22 +942,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C16" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D16" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E16" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F16" t="n">
-        <v>2542.6801</v>
+        <v>15104.4543</v>
       </c>
       <c r="G16" t="n">
-        <v>11.50000000000001</v>
+        <v>-368505.018</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C17" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D17" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E17" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>33757.0375</v>
       </c>
       <c r="G17" t="n">
-        <v>11.50000000000001</v>
+        <v>-368505.018</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1014,28 +1014,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C18" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D18" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E18" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F18" t="n">
-        <v>698.25</v>
+        <v>3887.37</v>
       </c>
       <c r="G18" t="n">
-        <v>11.48000000000001</v>
+        <v>-368505.018</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
@@ -1050,28 +1050,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D19" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E19" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>5399.64</v>
       </c>
       <c r="G19" t="n">
-        <v>11.52000000000001</v>
+        <v>-368505.018</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
@@ -1086,28 +1086,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D20" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E20" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F20" t="n">
-        <v>8620.6896</v>
+        <v>2738.91</v>
       </c>
       <c r="G20" t="n">
-        <v>11.52000000000001</v>
+        <v>-368505.018</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1122,28 +1122,28 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C21" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D21" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E21" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F21" t="n">
-        <v>13832.0526</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>11.56000000000001</v>
+        <v>-368495.018</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
@@ -1158,28 +1158,28 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C22" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D22" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E22" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F22" t="n">
-        <v>10307.69</v>
+        <v>2547.62</v>
       </c>
       <c r="G22" t="n">
-        <v>11.56000000000001</v>
+        <v>-371042.638</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1194,28 +1194,28 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="C23" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="D23" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="E23" t="n">
-        <v>11.6</v>
+        <v>11.4</v>
       </c>
       <c r="F23" t="n">
-        <v>2940.1426</v>
+        <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>11.60000000000001</v>
+        <v>-371032.638</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
@@ -1230,28 +1230,28 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="C24" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D24" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E24" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="F24" t="n">
-        <v>97069.85739999999</v>
+        <v>51689.4225</v>
       </c>
       <c r="G24" t="n">
-        <v>11.60000000000001</v>
+        <v>-422722.0605</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1266,28 +1266,28 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C25" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D25" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E25" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F25" t="n">
-        <v>21783.33</v>
+        <v>44066.4655</v>
       </c>
       <c r="G25" t="n">
-        <v>11.60000000000001</v>
+        <v>-422722.0605</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1302,28 +1302,28 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C26" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="D26" t="n">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="E26" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F26" t="n">
-        <v>10770.62</v>
+        <v>55933.5345</v>
       </c>
       <c r="G26" t="n">
-        <v>11.60000000000001</v>
+        <v>-422722.0605</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1338,28 +1338,28 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="C27" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="D27" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="E27" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="F27" t="n">
-        <v>66918.4615</v>
+        <v>2321.26</v>
       </c>
       <c r="G27" t="n">
-        <v>11.62000000000001</v>
+        <v>-425043.3205</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
@@ -1374,28 +1374,28 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C28" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D28" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E28" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F28" t="n">
-        <v>114217.3183</v>
+        <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>11.60000000000001</v>
+        <v>-425031.3205</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1410,28 +1410,28 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C29" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D29" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E29" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F29" t="n">
-        <v>85662.9887</v>
+        <v>3851.42</v>
       </c>
       <c r="G29" t="n">
-        <v>11.58000000000001</v>
+        <v>-428882.7405</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1446,28 +1446,28 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C30" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D30" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E30" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F30" t="n">
-        <v>2334.1437</v>
+        <v>550</v>
       </c>
       <c r="G30" t="n">
-        <v>11.56000000000001</v>
+        <v>-428332.7405</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
@@ -1482,28 +1482,28 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C31" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D31" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E31" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F31" t="n">
-        <v>1010.6086</v>
+        <v>24.1212</v>
       </c>
       <c r="G31" t="n">
-        <v>11.54000000000001</v>
+        <v>-428308.6193</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
@@ -1518,28 +1518,28 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E32" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F32" t="n">
-        <v>231290.0698</v>
+        <v>12813.08</v>
       </c>
       <c r="G32" t="n">
-        <v>11.48000000000001</v>
+        <v>-441121.6993</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -1554,22 +1554,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C33" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D33" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E33" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F33" t="n">
-        <v>27912.2108</v>
+        <v>18540.1145</v>
       </c>
       <c r="G33" t="n">
-        <v>11.48000000000001</v>
+        <v>-422581.5848</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1590,22 +1590,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C34" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D34" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E34" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F34" t="n">
-        <v>22.9565</v>
+        <v>8924.93</v>
       </c>
       <c r="G34" t="n">
-        <v>11.48000000000001</v>
+        <v>-431506.5147999999</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1638,10 +1638,10 @@
         <v>11.4</v>
       </c>
       <c r="F35" t="n">
-        <v>87641.39260000001</v>
+        <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>11.46000000000001</v>
+        <v>-431494.5147999999</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1662,22 +1662,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C36" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="D36" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E36" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="F36" t="n">
-        <v>153804.7271</v>
+        <v>2469.88</v>
       </c>
       <c r="G36" t="n">
-        <v>11.44000000000002</v>
+        <v>-433964.3948</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1698,22 +1698,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="C37" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="D37" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="E37" t="n">
-        <v>11.4</v>
+        <v>11.2</v>
       </c>
       <c r="F37" t="n">
-        <v>15910.31</v>
+        <v>104188.9541</v>
       </c>
       <c r="G37" t="n">
-        <v>11.44000000000002</v>
+        <v>-538153.3489</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="C38" t="n">
         <v>11.4</v>
@@ -1743,13 +1743,13 @@
         <v>11.4</v>
       </c>
       <c r="E38" t="n">
-        <v>11.1</v>
+        <v>11.4</v>
       </c>
       <c r="F38" t="n">
-        <v>20943.42</v>
+        <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>11.42000000000002</v>
+        <v>-538141.3489</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1770,22 +1770,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="C39" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D39" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="E39" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="F39" t="n">
-        <v>3843.09</v>
+        <v>49623.948</v>
       </c>
       <c r="G39" t="n">
-        <v>11.36000000000002</v>
+        <v>-488517.4009</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1806,22 +1806,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="C40" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D40" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="E40" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="F40" t="n">
-        <v>6436.927</v>
+        <v>6858.0688</v>
       </c>
       <c r="G40" t="n">
-        <v>11.32000000000002</v>
+        <v>-488517.4009</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1842,35 +1842,31 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="C41" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="D41" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="E41" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="F41" t="n">
-        <v>36642.27</v>
+        <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>11.28000000000002</v>
+        <v>-488507.4009</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
@@ -1882,40 +1878,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="C42" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D42" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="E42" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F42" t="n">
-        <v>3043.4513</v>
+        <v>2440.4203</v>
       </c>
       <c r="G42" t="n">
-        <v>11.26000000000002</v>
+        <v>-490947.8212</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1926,40 +1914,32 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="C43" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="D43" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="E43" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.9973</v>
+        <v>32942.3803</v>
       </c>
       <c r="G43" t="n">
-        <v>11.22000000000002</v>
+        <v>-523890.2015</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1970,35 +1950,31 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="C44" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="D44" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="E44" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="F44" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>11.26000000000002</v>
+        <v>-523880.2015</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
@@ -2013,37 +1989,29 @@
         <v>11.5</v>
       </c>
       <c r="C45" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D45" t="n">
         <v>11.5</v>
       </c>
       <c r="E45" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F45" t="n">
-        <v>50</v>
+        <v>2542.6801</v>
       </c>
       <c r="G45" t="n">
-        <v>11.32000000000002</v>
+        <v>-526422.8816000001</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2054,22 +2022,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="C46" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="D46" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="E46" t="n">
-        <v>11.3</v>
+        <v>11.6</v>
       </c>
       <c r="F46" t="n">
-        <v>3180.52</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>11.34000000000001</v>
+        <v>-526412.8816000001</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2078,14 +2046,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2099,25 +2061,25 @@
         <v>11.4</v>
       </c>
       <c r="C47" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D47" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E47" t="n">
         <v>11.4</v>
       </c>
       <c r="F47" t="n">
-        <v>6558.5388</v>
+        <v>698.25</v>
       </c>
       <c r="G47" t="n">
-        <v>11.38000000000001</v>
+        <v>-527111.1316000001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
@@ -2132,22 +2094,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C48" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D48" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E48" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F48" t="n">
-        <v>32063.4138</v>
+        <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>11.44000000000002</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2168,28 +2130,28 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C49" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D49" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E49" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F49" t="n">
-        <v>5880975.3538</v>
+        <v>8620.6896</v>
       </c>
       <c r="G49" t="n">
-        <v>11.46000000000002</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
@@ -2204,28 +2166,28 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C50" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D50" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E50" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F50" t="n">
-        <v>5773658.2854</v>
+        <v>13832.0526</v>
       </c>
       <c r="G50" t="n">
-        <v>11.46000000000001</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -2240,28 +2202,28 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C51" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D51" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E51" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F51" t="n">
-        <v>5730731.4579</v>
+        <v>10307.69</v>
       </c>
       <c r="G51" t="n">
-        <v>11.50000000000001</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -2276,28 +2238,28 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C52" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D52" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E52" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F52" t="n">
-        <v>5816585.1126</v>
+        <v>2940.1426</v>
       </c>
       <c r="G52" t="n">
-        <v>11.50000000000001</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
@@ -2312,28 +2274,28 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="C53" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D53" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E53" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="F53" t="n">
-        <v>5344390.0113</v>
+        <v>97069.85739999999</v>
       </c>
       <c r="G53" t="n">
-        <v>11.50000000000001</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -2351,25 +2313,25 @@
         <v>11.5</v>
       </c>
       <c r="C54" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D54" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E54" t="n">
         <v>11.5</v>
       </c>
       <c r="F54" t="n">
-        <v>85853.6548</v>
+        <v>21783.33</v>
       </c>
       <c r="G54" t="n">
-        <v>11.50000000000001</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
@@ -2387,25 +2349,25 @@
         <v>11.5</v>
       </c>
       <c r="C55" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="D55" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="E55" t="n">
         <v>11.5</v>
       </c>
       <c r="F55" t="n">
-        <v>30.862</v>
+        <v>10770.62</v>
       </c>
       <c r="G55" t="n">
-        <v>11.50000000000001</v>
+        <v>-527101.1316000001</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
@@ -2420,28 +2382,28 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="C56" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="D56" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="E56" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="F56" t="n">
-        <v>3683776.6994</v>
+        <v>66918.4615</v>
       </c>
       <c r="G56" t="n">
-        <v>11.50000000000001</v>
+        <v>-460182.6701000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
@@ -2468,16 +2430,16 @@
         <v>11.5</v>
       </c>
       <c r="F57" t="n">
-        <v>9127942.264</v>
+        <v>114217.3183</v>
       </c>
       <c r="G57" t="n">
-        <v>11.50000000000001</v>
+        <v>-574399.9884000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -2504,10 +2466,10 @@
         <v>11.5</v>
       </c>
       <c r="F58" t="n">
-        <v>8834544.1198</v>
+        <v>85662.9887</v>
       </c>
       <c r="G58" t="n">
-        <v>11.50000000000001</v>
+        <v>-574399.9884000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2540,10 +2502,10 @@
         <v>11.5</v>
       </c>
       <c r="F59" t="n">
-        <v>8932343.5012</v>
+        <v>2334.1437</v>
       </c>
       <c r="G59" t="n">
-        <v>11.50000000000001</v>
+        <v>-574399.9884000001</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2576,10 +2538,10 @@
         <v>11.5</v>
       </c>
       <c r="F60" t="n">
-        <v>8932343.5012</v>
+        <v>1010.6086</v>
       </c>
       <c r="G60" t="n">
-        <v>11.50000000000001</v>
+        <v>-574399.9884000001</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2600,22 +2562,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C61" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D61" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E61" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F61" t="n">
-        <v>9030142.8826</v>
+        <v>231290.0698</v>
       </c>
       <c r="G61" t="n">
-        <v>11.50000000000001</v>
+        <v>-805690.0582000001</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2636,7 +2598,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C62" t="n">
         <v>11.5</v>
@@ -2645,13 +2607,13 @@
         <v>11.5</v>
       </c>
       <c r="E62" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F62" t="n">
-        <v>8905212.8454</v>
+        <v>27912.2108</v>
       </c>
       <c r="G62" t="n">
-        <v>11.50000000000001</v>
+        <v>-777777.8474000001</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2684,10 +2646,10 @@
         <v>11.5</v>
       </c>
       <c r="F63" t="n">
-        <v>8646134.7686</v>
+        <v>22.9565</v>
       </c>
       <c r="G63" t="n">
-        <v>11.50000000000001</v>
+        <v>-777777.8474000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2708,22 +2670,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C64" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D64" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E64" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F64" t="n">
-        <v>10441825.5892</v>
+        <v>87641.39260000001</v>
       </c>
       <c r="G64" t="n">
-        <v>11.50000000000001</v>
+        <v>-865419.2400000001</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2744,22 +2706,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C65" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D65" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E65" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F65" t="n">
-        <v>10278611.586</v>
+        <v>153804.7271</v>
       </c>
       <c r="G65" t="n">
-        <v>11.50000000000001</v>
+        <v>-865419.2400000001</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2780,22 +2742,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C66" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D66" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E66" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F66" t="n">
-        <v>10430887.3132</v>
+        <v>15910.31</v>
       </c>
       <c r="G66" t="n">
-        <v>11.50000000000001</v>
+        <v>-865419.2400000001</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2816,22 +2778,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C67" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D67" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E67" t="n">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="F67" t="n">
-        <v>10316680.5178</v>
+        <v>20943.42</v>
       </c>
       <c r="G67" t="n">
-        <v>11.50000000000001</v>
+        <v>-865419.2400000001</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2852,22 +2814,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C68" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D68" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E68" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F68" t="n">
-        <v>10354749.4496</v>
+        <v>3843.09</v>
       </c>
       <c r="G68" t="n">
-        <v>11.50000000000001</v>
+        <v>-869262.3300000001</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2888,22 +2850,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C69" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D69" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E69" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F69" t="n">
-        <v>10545094.1086</v>
+        <v>6436.927</v>
       </c>
       <c r="G69" t="n">
-        <v>11.50000000000001</v>
+        <v>-869262.3300000001</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2924,22 +2886,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C70" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D70" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="E70" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F70" t="n">
-        <v>10430887.3132</v>
+        <v>36642.27</v>
       </c>
       <c r="G70" t="n">
-        <v>11.50000000000001</v>
+        <v>-869262.3300000001</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2960,22 +2922,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="C71" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="D71" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="E71" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="F71" t="n">
-        <v>10278611.586</v>
+        <v>3043.4513</v>
       </c>
       <c r="G71" t="n">
-        <v>11.50000000000001</v>
+        <v>-866218.8787000001</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2996,22 +2958,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="C72" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="E72" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="F72" t="n">
-        <v>3437581.4769</v>
+        <v>3132.9973</v>
       </c>
       <c r="G72" t="n">
-        <v>11.50000000000001</v>
+        <v>-869351.8760000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3032,22 +2994,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="C73" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="D73" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="E73" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="F73" t="n">
-        <v>45454.5454</v>
+        <v>30</v>
       </c>
       <c r="G73" t="n">
-        <v>11.50000000000001</v>
+        <v>-869321.8760000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3068,22 +3030,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C74" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D74" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E74" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F74" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G74" t="n">
-        <v>11.52000000000001</v>
+        <v>-869271.8760000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3104,22 +3066,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="C75" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="D75" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="E75" t="n">
-        <v>11.7</v>
+        <v>11.3</v>
       </c>
       <c r="F75" t="n">
-        <v>11.8803</v>
+        <v>3180.52</v>
       </c>
       <c r="G75" t="n">
-        <v>11.56000000000001</v>
+        <v>-872452.3960000002</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3140,22 +3102,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="C76" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D76" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E76" t="n">
-        <v>11.7</v>
+        <v>11.4</v>
       </c>
       <c r="F76" t="n">
-        <v>5000</v>
+        <v>6558.5388</v>
       </c>
       <c r="G76" t="n">
-        <v>11.60000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3176,22 +3138,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C77" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D77" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E77" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F77" t="n">
-        <v>7566.8162</v>
+        <v>32063.4138</v>
       </c>
       <c r="G77" t="n">
-        <v>11.64000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3212,22 +3174,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C78" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D78" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E78" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F78" t="n">
-        <v>5000</v>
+        <v>5880975.3538</v>
       </c>
       <c r="G78" t="n">
-        <v>11.66000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3248,22 +3210,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C79" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D79" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E79" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F79" t="n">
-        <v>17791.5811</v>
+        <v>5773658.2854</v>
       </c>
       <c r="G79" t="n">
-        <v>11.68000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3284,22 +3246,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C80" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D80" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E80" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F80" t="n">
-        <v>12</v>
+        <v>5730731.4579</v>
       </c>
       <c r="G80" t="n">
-        <v>11.70000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3320,28 +3282,28 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C81" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="D81" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E81" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F81" t="n">
-        <v>161641.6468</v>
+        <v>5816585.1126</v>
       </c>
       <c r="G81" t="n">
-        <v>11.74000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
@@ -3356,28 +3318,28 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C82" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D82" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E82" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F82" t="n">
-        <v>21316.2058</v>
+        <v>5344390.0113</v>
       </c>
       <c r="G82" t="n">
-        <v>11.76000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -3392,28 +3354,28 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C83" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D83" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E83" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F83" t="n">
-        <v>12473.1648</v>
+        <v>85853.6548</v>
       </c>
       <c r="G83" t="n">
-        <v>11.80000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -3428,28 +3390,28 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="C84" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D84" t="n">
-        <v>11.9</v>
+        <v>11.5</v>
       </c>
       <c r="E84" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F84" t="n">
-        <v>115480.7312</v>
+        <v>30.862</v>
       </c>
       <c r="G84" t="n">
-        <v>11.82000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
@@ -3464,28 +3426,28 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C85" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D85" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E85" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F85" t="n">
-        <v>23065.9794</v>
+        <v>3683776.6994</v>
       </c>
       <c r="G85" t="n">
-        <v>11.80000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
@@ -3500,28 +3462,28 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C86" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D86" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E86" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F86" t="n">
-        <v>12</v>
+        <v>9127942.264</v>
       </c>
       <c r="G86" t="n">
-        <v>11.78000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
@@ -3536,28 +3498,28 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C87" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D87" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E87" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F87" t="n">
-        <v>1373.0296</v>
+        <v>8834544.1198</v>
       </c>
       <c r="G87" t="n">
-        <v>11.78000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
@@ -3572,28 +3534,28 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="C88" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="D88" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="E88" t="n">
-        <v>11.8</v>
+        <v>11.5</v>
       </c>
       <c r="F88" t="n">
-        <v>45.7128</v>
+        <v>8932343.5012</v>
       </c>
       <c r="G88" t="n">
-        <v>11.78000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
@@ -3608,28 +3570,28 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C89" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D89" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E89" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F89" t="n">
-        <v>4710</v>
+        <v>8932343.5012</v>
       </c>
       <c r="G89" t="n">
-        <v>11.76000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
@@ -3644,28 +3606,28 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C90" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D90" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E90" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F90" t="n">
-        <v>5022.7779</v>
+        <v>9030142.8826</v>
       </c>
       <c r="G90" t="n">
-        <v>11.74000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
@@ -3680,28 +3642,28 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C91" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D91" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E91" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F91" t="n">
-        <v>2810</v>
+        <v>8905212.8454</v>
       </c>
       <c r="G91" t="n">
-        <v>11.72000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -3728,16 +3690,16 @@
         <v>11.5</v>
       </c>
       <c r="F92" t="n">
-        <v>87675.32339999999</v>
+        <v>8646134.7686</v>
       </c>
       <c r="G92" t="n">
-        <v>11.66000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
@@ -3764,10 +3726,10 @@
         <v>11.5</v>
       </c>
       <c r="F93" t="n">
-        <v>37780.5882</v>
+        <v>10441825.5892</v>
       </c>
       <c r="G93" t="n">
-        <v>11.60000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3791,19 +3753,19 @@
         <v>11.5</v>
       </c>
       <c r="C94" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="D94" t="n">
         <v>11.5</v>
       </c>
       <c r="E94" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="F94" t="n">
-        <v>40241.6498</v>
+        <v>10278611.586</v>
       </c>
       <c r="G94" t="n">
-        <v>11.52000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3836,10 +3798,10 @@
         <v>11.5</v>
       </c>
       <c r="F95" t="n">
-        <v>10.101</v>
+        <v>10430887.3132</v>
       </c>
       <c r="G95" t="n">
-        <v>11.50000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3872,10 +3834,10 @@
         <v>11.5</v>
       </c>
       <c r="F96" t="n">
-        <v>6157.9702</v>
+        <v>10316680.5178</v>
       </c>
       <c r="G96" t="n">
-        <v>11.46000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3896,22 +3858,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C97" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D97" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E97" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F97" t="n">
-        <v>61598.6268</v>
+        <v>10354749.4496</v>
       </c>
       <c r="G97" t="n">
-        <v>11.48000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3932,28 +3894,28 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="C98" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D98" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E98" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="F98" t="n">
-        <v>12.3212</v>
+        <v>10545094.1086</v>
       </c>
       <c r="G98" t="n">
-        <v>11.52000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
@@ -3980,16 +3942,16 @@
         <v>11.5</v>
       </c>
       <c r="F99" t="n">
-        <v>64575.331</v>
+        <v>10430887.3132</v>
       </c>
       <c r="G99" t="n">
-        <v>11.56000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
@@ -4004,28 +3966,28 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C100" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D100" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="E100" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F100" t="n">
-        <v>40052.1551</v>
+        <v>10278611.586</v>
       </c>
       <c r="G100" t="n">
-        <v>11.58000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
@@ -4040,28 +4002,28 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C101" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="D101" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="E101" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F101" t="n">
-        <v>10</v>
+        <v>3437581.4769</v>
       </c>
       <c r="G101" t="n">
-        <v>11.60000000000001</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
@@ -4076,28 +4038,28 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="C102" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="D102" t="n">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="E102" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="F102" t="n">
-        <v>7734.9146</v>
+        <v>45454.5454</v>
       </c>
       <c r="G102" t="n">
-        <v>11.62000000000002</v>
+        <v>-865893.8572000002</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
@@ -4112,28 +4074,28 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C103" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D103" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E103" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F103" t="n">
-        <v>4132.52</v>
+        <v>12</v>
       </c>
       <c r="G103" t="n">
-        <v>11.62000000000001</v>
+        <v>-865881.8572000002</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
@@ -4160,16 +4122,16 @@
         <v>11.7</v>
       </c>
       <c r="F104" t="n">
-        <v>77582.32919999999</v>
+        <v>11.8803</v>
       </c>
       <c r="G104" t="n">
-        <v>11.66000000000001</v>
+        <v>-865869.9769000002</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
@@ -4196,16 +4158,16 @@
         <v>11.7</v>
       </c>
       <c r="F105" t="n">
-        <v>3760</v>
+        <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>11.68000000000001</v>
+        <v>-865869.9769000002</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
@@ -4232,16 +4194,16 @@
         <v>11.7</v>
       </c>
       <c r="F106" t="n">
-        <v>383.3333</v>
+        <v>7566.8162</v>
       </c>
       <c r="G106" t="n">
-        <v>11.70000000000001</v>
+        <v>-865869.9769000002</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
@@ -4256,28 +4218,28 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="C107" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="D107" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="E107" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="F107" t="n">
-        <v>3760</v>
+        <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>11.70000000000001</v>
+        <v>-870869.9769000002</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
@@ -4304,16 +4266,16 @@
         <v>11.7</v>
       </c>
       <c r="F108" t="n">
-        <v>9326.6666</v>
+        <v>17791.5811</v>
       </c>
       <c r="G108" t="n">
-        <v>11.70000000000001</v>
+        <v>-853078.3958000003</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4328,28 +4290,28 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C109" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="D109" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="E109" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F109" t="n">
-        <v>69083.9457</v>
+        <v>12</v>
       </c>
       <c r="G109" t="n">
-        <v>11.66000000000001</v>
+        <v>-853066.3958000003</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
@@ -4364,28 +4326,28 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="C110" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="D110" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E110" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="F110" t="n">
-        <v>98335.29829999999</v>
+        <v>161641.6468</v>
       </c>
       <c r="G110" t="n">
-        <v>11.64000000000001</v>
+        <v>-691424.7490000003</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
@@ -4400,28 +4362,28 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>11.5</v>
+        <v>11.8</v>
       </c>
       <c r="C111" t="n">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="D111" t="n">
-        <v>11.6</v>
+        <v>11.9</v>
       </c>
       <c r="E111" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="F111" t="n">
-        <v>11389.53</v>
+        <v>21316.2058</v>
       </c>
       <c r="G111" t="n">
-        <v>11.62000000000001</v>
+        <v>-712740.9548000003</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
@@ -4436,28 +4398,28 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="C112" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="D112" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="E112" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="F112" t="n">
-        <v>11834.46</v>
+        <v>12473.1648</v>
       </c>
       <c r="G112" t="n">
-        <v>11.56000000000001</v>
+        <v>-712740.9548000003</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -4472,28 +4434,28 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="C113" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="D113" t="n">
-        <v>11.4</v>
+        <v>11.9</v>
       </c>
       <c r="E113" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="F113" t="n">
-        <v>132198.0024</v>
+        <v>115480.7312</v>
       </c>
       <c r="G113" t="n">
-        <v>11.50000000000001</v>
+        <v>-712740.9548000003</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
@@ -4508,28 +4470,28 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="C114" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="D114" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="E114" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="F114" t="n">
-        <v>116676.8321</v>
+        <v>23065.9794</v>
       </c>
       <c r="G114" t="n">
-        <v>11.48000000000001</v>
+        <v>-735806.9342000003</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
@@ -4544,28 +4506,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="C115" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="D115" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="E115" t="n">
-        <v>11.4</v>
+        <v>11.8</v>
       </c>
       <c r="F115" t="n">
-        <v>29869.8273</v>
+        <v>12</v>
       </c>
       <c r="G115" t="n">
-        <v>11.44000000000001</v>
+        <v>-735794.9342000003</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -4580,28 +4542,28 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="C116" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="D116" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="E116" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="F116" t="n">
-        <v>55317.7758</v>
+        <v>1373.0296</v>
       </c>
       <c r="G116" t="n">
-        <v>11.38000000000001</v>
+        <v>-735794.9342000003</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
@@ -4616,28 +4578,28 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="C117" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="D117" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="E117" t="n">
-        <v>11.3</v>
+        <v>11.8</v>
       </c>
       <c r="F117" t="n">
-        <v>27611.6508</v>
+        <v>45.7128</v>
       </c>
       <c r="G117" t="n">
-        <v>11.36000000000001</v>
+        <v>-735794.9342000003</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4652,22 +4614,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="C118" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="D118" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="E118" t="n">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="F118" t="n">
-        <v>11805.0783</v>
+        <v>4710</v>
       </c>
       <c r="G118" t="n">
-        <v>11.34000000000001</v>
+        <v>-740504.9342000003</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4688,22 +4650,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="C119" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="D119" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="E119" t="n">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="F119" t="n">
-        <v>75990.4768</v>
+        <v>5022.7779</v>
       </c>
       <c r="G119" t="n">
-        <v>11.30000000000001</v>
+        <v>-745527.7121000002</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4724,22 +4686,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="C120" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="D120" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="E120" t="n">
-        <v>11.2</v>
+        <v>11.7</v>
       </c>
       <c r="F120" t="n">
-        <v>22321.4285</v>
+        <v>2810</v>
       </c>
       <c r="G120" t="n">
-        <v>11.26000000000001</v>
+        <v>-742717.7121000002</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4760,22 +4722,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="C121" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D121" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="E121" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="F121" t="n">
-        <v>56642.6157</v>
+        <v>87675.32339999999</v>
       </c>
       <c r="G121" t="n">
-        <v>11.24000000000001</v>
+        <v>-830393.0355000002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -4796,40 +4758,1124 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="C122" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="D122" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="E122" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="F122" t="n">
-        <v>110768.0985</v>
+        <v>37780.5882</v>
       </c>
       <c r="G122" t="n">
-        <v>11.22000000000001</v>
+        <v>-830393.0355000002</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K122" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
       <c r="N122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D123" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F123" t="n">
+        <v>40241.6498</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-870634.6853000002</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+      <c r="N123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10.101</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-870624.5843000002</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C125" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D125" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E125" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>6157.9702</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-870624.5843000002</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>61598.6268</v>
+      </c>
+      <c r="G126" t="n">
+        <v>-809025.9575000003</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C127" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D127" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E127" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.3212</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-809013.6363000002</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>64575.331</v>
+      </c>
+      <c r="G128" t="n">
+        <v>-873588.9673000003</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D129" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E129" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F129" t="n">
+        <v>40052.1551</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-833536.8122000003</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C130" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D130" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E130" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F130" t="n">
+        <v>10</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-833536.8122000003</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D131" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E131" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="F131" t="n">
+        <v>7734.9146</v>
+      </c>
+      <c r="G131" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+      <c r="N131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E132" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4132.52</v>
+      </c>
+      <c r="G132" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E133" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F133" t="n">
+        <v>77582.32919999999</v>
+      </c>
+      <c r="G133" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E134" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F134" t="n">
+        <v>3760</v>
+      </c>
+      <c r="G134" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E135" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>383.3333</v>
+      </c>
+      <c r="G135" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E136" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3760</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="C137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="D137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="E137" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>9326.6666</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-825801.8976000003</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C138" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E138" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>69083.9457</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-894885.8433000003</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D139" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>98335.29829999999</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-796550.5450000003</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="D140" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E140" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F140" t="n">
+        <v>11389.53</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-796550.5450000003</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C141" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D141" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E141" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F141" t="n">
+        <v>11834.46</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-808385.0050000002</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>132198.0024</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-808385.0050000002</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C143" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D143" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E143" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F143" t="n">
+        <v>116676.8321</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-808385.0050000002</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="C144" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="D144" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="E144" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="F144" t="n">
+        <v>29869.8273</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-808385.0050000002</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C145" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D145" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E145" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F145" t="n">
+        <v>55317.7758</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-863702.7808000003</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K145" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C146" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D146" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F146" t="n">
+        <v>27611.6508</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-863702.7808000003</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K146" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="C147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="D147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="F147" t="n">
+        <v>11805.0783</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-863702.7808000003</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K147" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E148" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F148" t="n">
+        <v>75990.4768</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-939693.2576000004</v>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K148" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F149" t="n">
+        <v>22321.4285</v>
+      </c>
+      <c r="G149" t="n">
+        <v>-939693.2576000004</v>
+      </c>
+      <c r="H149" t="n">
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K149" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F150" t="n">
+        <v>56642.6157</v>
+      </c>
+      <c r="G150" t="n">
+        <v>-939693.2576000004</v>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K150" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="C151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="D151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="E151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="F151" t="n">
+        <v>110768.0985</v>
+      </c>
+      <c r="G151" t="n">
+        <v>-939693.2576000004</v>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N151"/>
+  <dimension ref="A1:M151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -528,18 +517,21 @@
         <v>-383907.5154</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,18 +556,21 @@
         <v>-383907.5154</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,18 +595,21 @@
         <v>-383907.5154</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +636,17 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +673,17 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +710,17 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +747,17 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +784,17 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +821,17 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +858,17 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +895,17 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +932,17 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +969,17 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +1006,17 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1043,17 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1080,17 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1117,17 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1154,17 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1191,17 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1228,17 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1248,18 +1263,17 @@
         <v>-422722.0605</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1300,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,18 +1331,15 @@
         <v>-422722.0605</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1366,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1399,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1428,18 +1430,19 @@
         <v>-428882.7405</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>11.3</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1464,18 +1467,23 @@
         <v>-428332.7405</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1500,18 +1508,23 @@
         <v>-428308.6193</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>11.3</v>
+      </c>
+      <c r="J31" t="n">
+        <v>11.3</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1551,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1584,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1617,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1650,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1683,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1716,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1752,18 +1747,19 @@
         <v>-538141.3489</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.2</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1788,18 +1784,23 @@
         <v>-488517.4009</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="J39" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1824,18 +1825,23 @@
         <v>-488517.4009</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1860,18 +1866,19 @@
         <v>-488507.4009</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1896,18 +1903,23 @@
         <v>-490947.8212</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>11.6</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1946,19 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1968,18 +1983,23 @@
         <v>-523880.2015</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2004,18 +2024,21 @@
         <v>-526422.8816000001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2040,18 +2063,23 @@
         <v>-526412.8816000001</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2076,18 +2104,21 @@
         <v>-527111.1316000001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2112,18 +2143,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2148,18 +2182,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>1</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2184,18 +2221,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>1</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2220,18 +2260,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2256,18 +2299,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2292,18 +2338,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2328,18 +2377,21 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1.003695652173913</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2364,18 +2416,15 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2449,15 @@
         <v>-460182.6701000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2436,18 +2482,15 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2472,18 +2515,15 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2508,18 +2548,15 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2544,18 +2581,15 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2580,18 +2614,15 @@
         <v>-805690.0582000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2649,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2682,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2715,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2748,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2781,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2814,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2832,18 +2845,19 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
+        <v>11.4</v>
+      </c>
+      <c r="J68" t="n">
+        <v>11.4</v>
+      </c>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2868,18 +2882,23 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="J69" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2923,23 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="J70" t="n">
+        <v>11.4</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2964,15 @@
         <v>-866218.8787000001</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2999,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +3030,15 @@
         <v>-869321.8760000002</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +3065,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +3096,15 @@
         <v>-872452.3960000002</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +3131,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +3164,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +3197,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +3230,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3263,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3296,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3329,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3362,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3395,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3428,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3461,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3494,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3527,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3560,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3593,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3626,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3659,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3692,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3725,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3758,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3791,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3824,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3857,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3890,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3923,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3956,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3989,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +4022,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +4055,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +4088,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +4121,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +4154,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +4187,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +4220,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4253,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4286,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4319,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4352,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4385,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4418,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4451,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4484,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4517,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4550,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4583,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4616,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4649,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4682,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4715,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4748,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4781,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4814,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4847,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4880,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4913,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4946,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4979,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +5012,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +5045,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +5078,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +5111,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +5144,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +5177,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +5210,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5243,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5276,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5309,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5342,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5375,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5604,22 +5406,15 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K145" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5644,26 +5439,15 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K146" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5688,26 +5472,15 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K147" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5732,22 +5505,15 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K148" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5772,26 +5538,15 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K149" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5816,26 +5571,15 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K150" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5860,24 +5604,17 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K151" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-420556.7761</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-422368.2427</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -519,15 +519,9 @@
       <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="I4" t="n">
-        <v>11.1</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -558,15 +552,9 @@
       <c r="H5" t="n">
         <v>2</v>
       </c>
-      <c r="I5" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -597,15 +585,9 @@
       <c r="H6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
-        <v>11.2</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -634,15 +616,11 @@
         <v>-383907.5154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -671,15 +649,11 @@
         <v>-313819.4904</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -708,15 +682,11 @@
         <v>-313841.4904</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -745,15 +715,11 @@
         <v>-313829.9046</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -782,15 +748,11 @@
         <v>-316700.3146</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -819,15 +781,11 @@
         <v>-396329.9442</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -856,15 +814,11 @@
         <v>-396329.9442</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -897,11 +851,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -934,11 +884,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -971,11 +917,7 @@
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1008,11 +950,7 @@
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +983,7 @@
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1078,15 +1012,11 @@
         <v>-368505.018</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1115,15 +1045,11 @@
         <v>-368505.018</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1152,15 +1078,11 @@
         <v>-368495.018</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1189,15 +1111,11 @@
         <v>-371042.638</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1226,15 +1144,11 @@
         <v>-371032.638</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1263,16 +1177,14 @@
         <v>-422722.0605</v>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
       <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1298,7 +1210,7 @@
         <v>-422722.0605</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1331,7 +1243,7 @@
         <v>-422722.0605</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1430,14 +1342,10 @@
         <v>-428882.7405</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J29" t="n">
-        <v>11.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
@@ -1467,19 +1375,11 @@
         <v>-428332.7405</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1508,19 +1408,11 @@
         <v>-428308.6193</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1615,7 +1507,7 @@
         <v>-431506.5147999999</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1747,14 +1639,10 @@
         <v>-538141.3489</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
@@ -1784,19 +1672,11 @@
         <v>-488517.4009</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
-      </c>
-      <c r="I39" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J39" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1825,19 +1705,11 @@
         <v>-488517.4009</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1866,14 +1738,10 @@
         <v>-488507.4009</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1903,19 +1771,11 @@
         <v>-490947.8212</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
-      </c>
-      <c r="I42" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1947,14 +1807,8 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1983,19 +1837,11 @@
         <v>-523880.2015</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2024,17 +1870,11 @@
         <v>-526422.8816000001</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2065,17 +1905,9 @@
       <c r="H46" t="n">
         <v>2</v>
       </c>
-      <c r="I46" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2104,17 +1936,11 @@
         <v>-527111.1316000001</v>
       </c>
       <c r="H47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2143,17 +1969,11 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2182,17 +2002,11 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2221,17 +2035,11 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2260,17 +2068,11 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2299,17 +2101,11 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2338,17 +2134,11 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2377,19 +2167,13 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
-        <v>1.003695652173913</v>
+        <v>1</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2416,7 +2200,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2449,7 +2233,7 @@
         <v>-460182.6701000001</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2482,7 +2266,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2515,7 +2299,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2548,7 +2332,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2581,7 +2365,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2614,7 +2398,7 @@
         <v>-805690.0582000001</v>
       </c>
       <c r="H61" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2845,14 +2629,10 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
-      </c>
-      <c r="I68" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="J68" t="n">
-        <v>11.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
@@ -2882,19 +2662,11 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
-      </c>
-      <c r="I69" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J69" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2923,19 +2695,11 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J70" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2964,7 +2728,7 @@
         <v>-866218.8787000001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -3030,7 +2794,7 @@
         <v>-869321.8760000002</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -3096,7 +2860,7 @@
         <v>-872452.3960000002</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -5538,10 +5302,14 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J149" t="n">
+        <v>11.2</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
@@ -5571,11 +5339,19 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J150" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5604,17 +5380,25 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-420556.7761</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-422368.2427</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-383907.5154</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>-383907.5154</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>-383907.5154</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>-383907.5154</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-313819.4904</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-313841.4904</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>-313829.9046</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-316700.3146</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-396329.9442</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-396329.9442</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-368505.018</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-368495.018</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-371042.638</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-422722.0605</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-422722.0605</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-431506.5147999999</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-538153.3489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-538141.3489</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-488507.4009</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-490947.8212</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-523890.2015</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-523880.2015</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-526412.8816000001</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-527111.1316000001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-460182.6701000001</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-805690.0582000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3553,10 +3553,14 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J96" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3586,11 +3590,19 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J97" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3634,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3685,10 +3703,14 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="J100" t="n">
+        <v>11.5</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3721,8 +3743,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3782,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +3821,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3817,11 +3857,19 @@
         <v>-865869.9769000002</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="J104" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +3901,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +3940,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +3979,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4018,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4057,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4096,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4135,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4213,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4252,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4291,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4330,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4369,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4408,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4447,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4486,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4525,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4564,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4603,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4642,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4681,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4720,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4759,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4798,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +4837,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +4876,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +4915,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +4954,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +4993,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5032,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5071,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5110,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5149,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5188,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5227,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5266,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5305,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5344,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5383,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5422,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5461,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5500,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5539,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5578,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5302,15 +5614,17 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
+        <v>11.5</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,17 +5653,15 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5380,17 +5692,15 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>11.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L151" t="n">
@@ -5399,6 +5709,6 @@
       <c r="M151" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -1012,7 +1012,7 @@
         <v>-368505.018</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-371032.638</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-538153.3489</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-538141.3489</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-488517.4009</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-488507.4009</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-490947.8212</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-523890.2015</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-523880.2015</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-526422.8816000001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-527101.1316000001</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-460182.6701000001</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-574399.9884000001</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-865419.2400000001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-869262.3300000001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -3553,14 +3553,10 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J96" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
@@ -3590,19 +3586,11 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3634,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3703,14 +3685,10 @@
         <v>-865893.8572000002</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="J100" t="n">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
@@ -3743,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3782,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3821,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3857,19 +3817,11 @@
         <v>-865869.9769000002</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="J104" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3901,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3940,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3979,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4018,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4057,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4096,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4132,17 +4048,11 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4171,17 +4081,11 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4210,17 +4114,11 @@
         <v>-712740.9548000003</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4249,17 +4147,11 @@
         <v>-735806.9342000003</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4288,17 +4180,11 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4327,17 +4213,11 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4366,17 +4246,11 @@
         <v>-735794.9342000003</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4405,17 +4279,11 @@
         <v>-740504.9342000003</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4447,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4486,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4525,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4564,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4603,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4642,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4681,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4720,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4759,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4798,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4837,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4876,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4915,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4954,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4993,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5029,17 +4807,11 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5068,17 +4840,11 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5107,17 +4873,11 @@
         <v>-825801.8976000003</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5149,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5185,17 +4939,11 @@
         <v>-894885.8433000003</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5227,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5263,17 +5005,11 @@
         <v>-796550.5450000003</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5305,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5344,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5383,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5422,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5461,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5497,17 +5203,15 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J146" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.3</v>
+      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5536,15 +5240,17 @@
         <v>-863702.7808000003</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J147" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L147" t="n">
@@ -5575,15 +5281,17 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>11.3</v>
+      </c>
       <c r="J148" t="n">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L148" t="n">
@@ -5614,17 +5322,15 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J149" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>11.2</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5653,15 +5359,17 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J150" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L150" t="n">
@@ -5692,15 +5400,17 @@
         <v>-939693.2576000004</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>11.2</v>
+      </c>
       <c r="J151" t="n">
-        <v>11.5</v>
+        <v>11.2</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L151" t="n">

--- a/BackTest/2019-10-26 BackTest RNT.xlsx
+++ b/BackTest/2019-10-26 BackTest RNT.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M151"/>
+  <dimension ref="A1:L151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>16410</v>
       </c>
       <c r="G2" t="n">
-        <v>-420556.7761</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1811.4666</v>
       </c>
       <c r="G3" t="n">
-        <v>-422368.2427</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,21 @@
         <v>38460.7273</v>
       </c>
       <c r="G4" t="n">
-        <v>-383907.5154</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +539,21 @@
         <v>6181.0892</v>
       </c>
       <c r="G5" t="n">
-        <v>-383907.5154</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +575,21 @@
         <v>1984.5892</v>
       </c>
       <c r="G6" t="n">
-        <v>-383907.5154</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +611,21 @@
         <v>3755.0178</v>
       </c>
       <c r="G7" t="n">
-        <v>-383907.5154</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +647,21 @@
         <v>70088.02499999999</v>
       </c>
       <c r="G8" t="n">
-        <v>-313819.4904</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +683,21 @@
         <v>22</v>
       </c>
       <c r="G9" t="n">
-        <v>-313841.4904</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +719,21 @@
         <v>11.5858</v>
       </c>
       <c r="G10" t="n">
-        <v>-313829.9046</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +755,19 @@
         <v>2870.41</v>
       </c>
       <c r="G11" t="n">
-        <v>-316700.3146</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +789,21 @@
         <v>79629.6296</v>
       </c>
       <c r="G12" t="n">
-        <v>-396329.9442</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>11.2</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +825,21 @@
         <v>112431.8758</v>
       </c>
       <c r="G13" t="n">
-        <v>-396329.9442</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +861,19 @@
         <v>22</v>
       </c>
       <c r="G14" t="n">
-        <v>-396329.9442</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +895,19 @@
         <v>27824.9262</v>
       </c>
       <c r="G15" t="n">
-        <v>-368505.018</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +929,19 @@
         <v>15104.4543</v>
       </c>
       <c r="G16" t="n">
-        <v>-368505.018</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +963,19 @@
         <v>33757.0375</v>
       </c>
       <c r="G17" t="n">
-        <v>-368505.018</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +997,19 @@
         <v>3887.37</v>
       </c>
       <c r="G18" t="n">
-        <v>-368505.018</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +1031,19 @@
         <v>5399.64</v>
       </c>
       <c r="G19" t="n">
-        <v>-368505.018</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +1065,21 @@
         <v>2738.91</v>
       </c>
       <c r="G20" t="n">
-        <v>-368505.018</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1101,21 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-368495.018</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1137,21 @@
         <v>2547.62</v>
       </c>
       <c r="G22" t="n">
-        <v>-371042.638</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1173,21 @@
         <v>10</v>
       </c>
       <c r="G23" t="n">
-        <v>-371032.638</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1209,21 @@
         <v>51689.4225</v>
       </c>
       <c r="G24" t="n">
-        <v>-422722.0605</v>
+        <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1245,19 @@
         <v>44066.4655</v>
       </c>
       <c r="G25" t="n">
-        <v>-422722.0605</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1279,21 @@
         <v>55933.5345</v>
       </c>
       <c r="G26" t="n">
-        <v>-422722.0605</v>
+        <v>1</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1315,19 @@
         <v>2321.26</v>
       </c>
       <c r="G27" t="n">
-        <v>-425043.3205</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1349,19 @@
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>-425031.3205</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1383,19 @@
         <v>3851.42</v>
       </c>
       <c r="G29" t="n">
-        <v>-428882.7405</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1417,19 @@
         <v>550</v>
       </c>
       <c r="G30" t="n">
-        <v>-428332.7405</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1451,19 @@
         <v>24.1212</v>
       </c>
       <c r="G31" t="n">
-        <v>-428308.6193</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1485,21 @@
         <v>12813.08</v>
       </c>
       <c r="G32" t="n">
-        <v>-441121.6993</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>11.4</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1521,21 @@
         <v>18540.1145</v>
       </c>
       <c r="G33" t="n">
-        <v>-422581.5848</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1557,19 @@
         <v>8924.93</v>
       </c>
       <c r="G34" t="n">
-        <v>-431506.5147999999</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1591,19 @@
         <v>12</v>
       </c>
       <c r="G35" t="n">
-        <v>-431494.5147999999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1625,19 @@
         <v>2469.88</v>
       </c>
       <c r="G36" t="n">
-        <v>-433964.3948</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1659,21 @@
         <v>104188.9541</v>
       </c>
       <c r="G37" t="n">
-        <v>-538153.3489</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>11.3</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1695,19 @@
         <v>12</v>
       </c>
       <c r="G38" t="n">
-        <v>-538141.3489</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1729,19 @@
         <v>49623.948</v>
       </c>
       <c r="G39" t="n">
-        <v>-488517.4009</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1763,19 @@
         <v>6858.0688</v>
       </c>
       <c r="G40" t="n">
-        <v>-488517.4009</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1797,19 @@
         <v>10</v>
       </c>
       <c r="G41" t="n">
-        <v>-488507.4009</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1831,19 @@
         <v>2440.4203</v>
       </c>
       <c r="G42" t="n">
-        <v>-490947.8212</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1865,19 @@
         <v>32942.3803</v>
       </c>
       <c r="G43" t="n">
-        <v>-523890.2015</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1899,19 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-523880.2015</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1933,19 @@
         <v>2542.6801</v>
       </c>
       <c r="G45" t="n">
-        <v>-526422.8816000001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1967,19 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-526412.8816000001</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +2001,19 @@
         <v>698.25</v>
       </c>
       <c r="G47" t="n">
-        <v>-527111.1316000001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +2035,19 @@
         <v>10</v>
       </c>
       <c r="G48" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +2069,19 @@
         <v>8620.6896</v>
       </c>
       <c r="G49" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +2103,19 @@
         <v>13832.0526</v>
       </c>
       <c r="G50" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +2137,19 @@
         <v>10307.69</v>
       </c>
       <c r="G51" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +2171,19 @@
         <v>2940.1426</v>
       </c>
       <c r="G52" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +2205,19 @@
         <v>97069.85739999999</v>
       </c>
       <c r="G53" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2239,19 @@
         <v>21783.33</v>
       </c>
       <c r="G54" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2273,19 @@
         <v>10770.62</v>
       </c>
       <c r="G55" t="n">
-        <v>-527101.1316000001</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2307,19 @@
         <v>66918.4615</v>
       </c>
       <c r="G56" t="n">
-        <v>-460182.6701000001</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2341,19 @@
         <v>114217.3183</v>
       </c>
       <c r="G57" t="n">
-        <v>-574399.9884000001</v>
-      </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2375,19 @@
         <v>85662.9887</v>
       </c>
       <c r="G58" t="n">
-        <v>-574399.9884000001</v>
-      </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2409,19 @@
         <v>2334.1437</v>
       </c>
       <c r="G59" t="n">
-        <v>-574399.9884000001</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2443,19 @@
         <v>1010.6086</v>
       </c>
       <c r="G60" t="n">
-        <v>-574399.9884000001</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2477,19 @@
         <v>231290.0698</v>
       </c>
       <c r="G61" t="n">
-        <v>-805690.0582000001</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2511,19 @@
         <v>27912.2108</v>
       </c>
       <c r="G62" t="n">
-        <v>-777777.8474000001</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2545,19 @@
         <v>22.9565</v>
       </c>
       <c r="G63" t="n">
-        <v>-777777.8474000001</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2579,19 @@
         <v>87641.39260000001</v>
       </c>
       <c r="G64" t="n">
-        <v>-865419.2400000001</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2613,19 @@
         <v>153804.7271</v>
       </c>
       <c r="G65" t="n">
-        <v>-865419.2400000001</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2647,19 @@
         <v>15910.31</v>
       </c>
       <c r="G66" t="n">
-        <v>-865419.2400000001</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2681,19 @@
         <v>20943.42</v>
       </c>
       <c r="G67" t="n">
-        <v>-865419.2400000001</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2715,19 @@
         <v>3843.09</v>
       </c>
       <c r="G68" t="n">
-        <v>-869262.3300000001</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2749,19 @@
         <v>6436.927</v>
       </c>
       <c r="G69" t="n">
-        <v>-869262.3300000001</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2783,19 @@
         <v>36642.27</v>
       </c>
       <c r="G70" t="n">
-        <v>-869262.3300000001</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2817,19 @@
         <v>3043.4513</v>
       </c>
       <c r="G71" t="n">
-        <v>-866218.8787000001</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2851,19 @@
         <v>3132.9973</v>
       </c>
       <c r="G72" t="n">
-        <v>-869351.8760000002</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2885,19 @@
         <v>30</v>
       </c>
       <c r="G73" t="n">
-        <v>-869321.8760000002</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2919,19 @@
         <v>50</v>
       </c>
       <c r="G74" t="n">
-        <v>-869271.8760000002</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2953,19 @@
         <v>3180.52</v>
       </c>
       <c r="G75" t="n">
-        <v>-872452.3960000002</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2987,19 @@
         <v>6558.5388</v>
       </c>
       <c r="G76" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +3021,19 @@
         <v>32063.4138</v>
       </c>
       <c r="G77" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +3055,19 @@
         <v>5880975.3538</v>
       </c>
       <c r="G78" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +3089,19 @@
         <v>5773658.2854</v>
       </c>
       <c r="G79" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +3123,19 @@
         <v>5730731.4579</v>
       </c>
       <c r="G80" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +3157,19 @@
         <v>5816585.1126</v>
       </c>
       <c r="G81" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +3191,19 @@
         <v>5344390.0113</v>
       </c>
       <c r="G82" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +3225,19 @@
         <v>85853.6548</v>
       </c>
       <c r="G83" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +3259,19 @@
         <v>30.862</v>
       </c>
       <c r="G84" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +3293,19 @@
         <v>3683776.6994</v>
       </c>
       <c r="G85" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +3327,19 @@
         <v>9127942.264</v>
       </c>
       <c r="G86" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +3361,19 @@
         <v>8834544.1198</v>
       </c>
       <c r="G87" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3395,19 @@
         <v>8932343.5012</v>
       </c>
       <c r="G88" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3429,19 @@
         <v>8932343.5012</v>
       </c>
       <c r="G89" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3463,19 @@
         <v>9030142.8826</v>
       </c>
       <c r="G90" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3497,19 @@
         <v>8905212.8454</v>
       </c>
       <c r="G91" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3531,19 @@
         <v>8646134.7686</v>
       </c>
       <c r="G92" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3565,19 @@
         <v>10441825.5892</v>
       </c>
       <c r="G93" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3599,19 @@
         <v>10278611.586</v>
       </c>
       <c r="G94" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3633,19 @@
         <v>10430887.3132</v>
       </c>
       <c r="G95" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3667,19 @@
         <v>10316680.5178</v>
       </c>
       <c r="G96" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3701,19 @@
         <v>10354749.4496</v>
       </c>
       <c r="G97" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3735,19 @@
         <v>10545094.1086</v>
       </c>
       <c r="G98" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3769,19 @@
         <v>10430887.3132</v>
       </c>
       <c r="G99" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3803,19 @@
         <v>10278611.586</v>
       </c>
       <c r="G100" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3837,19 @@
         <v>3437581.4769</v>
       </c>
       <c r="G101" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3871,19 @@
         <v>45454.5454</v>
       </c>
       <c r="G102" t="n">
-        <v>-865893.8572000002</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3905,19 @@
         <v>12</v>
       </c>
       <c r="G103" t="n">
-        <v>-865881.8572000002</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3939,19 @@
         <v>11.8803</v>
       </c>
       <c r="G104" t="n">
-        <v>-865869.9769000002</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3973,19 @@
         <v>5000</v>
       </c>
       <c r="G105" t="n">
-        <v>-865869.9769000002</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +4007,19 @@
         <v>7566.8162</v>
       </c>
       <c r="G106" t="n">
-        <v>-865869.9769000002</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +4041,19 @@
         <v>5000</v>
       </c>
       <c r="G107" t="n">
-        <v>-870869.9769000002</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +4075,19 @@
         <v>17791.5811</v>
       </c>
       <c r="G108" t="n">
-        <v>-853078.3958000003</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +4109,19 @@
         <v>12</v>
       </c>
       <c r="G109" t="n">
-        <v>-853066.3958000003</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +4143,19 @@
         <v>161641.6468</v>
       </c>
       <c r="G110" t="n">
-        <v>-691424.7490000003</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +4177,19 @@
         <v>21316.2058</v>
       </c>
       <c r="G111" t="n">
-        <v>-712740.9548000003</v>
-      </c>
-      <c r="H111" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +4211,19 @@
         <v>12473.1648</v>
       </c>
       <c r="G112" t="n">
-        <v>-712740.9548000003</v>
-      </c>
-      <c r="H112" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +4245,19 @@
         <v>115480.7312</v>
       </c>
       <c r="G113" t="n">
-        <v>-712740.9548000003</v>
-      </c>
-      <c r="H113" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +4279,17 @@
         <v>23065.9794</v>
       </c>
       <c r="G114" t="n">
-        <v>-735806.9342000003</v>
-      </c>
-      <c r="H114" t="n">
         <v>2</v>
       </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +4311,15 @@
         <v>12</v>
       </c>
       <c r="G115" t="n">
-        <v>-735794.9342000003</v>
-      </c>
-      <c r="H115" t="n">
         <v>2</v>
       </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +4341,15 @@
         <v>1373.0296</v>
       </c>
       <c r="G116" t="n">
-        <v>-735794.9342000003</v>
-      </c>
-      <c r="H116" t="n">
         <v>2</v>
       </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +4371,15 @@
         <v>45.7128</v>
       </c>
       <c r="G117" t="n">
-        <v>-735794.9342000003</v>
-      </c>
-      <c r="H117" t="n">
         <v>2</v>
       </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +4401,15 @@
         <v>4710</v>
       </c>
       <c r="G118" t="n">
-        <v>-740504.9342000003</v>
-      </c>
-      <c r="H118" t="n">
         <v>2</v>
       </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +4431,15 @@
         <v>5022.7779</v>
       </c>
       <c r="G119" t="n">
-        <v>-745527.7121000002</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +4461,15 @@
         <v>2810</v>
       </c>
       <c r="G120" t="n">
-        <v>-742717.7121000002</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4491,15 @@
         <v>87675.32339999999</v>
       </c>
       <c r="G121" t="n">
-        <v>-830393.0355000002</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4521,15 @@
         <v>37780.5882</v>
       </c>
       <c r="G122" t="n">
-        <v>-830393.0355000002</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4551,15 @@
         <v>40241.6498</v>
       </c>
       <c r="G123" t="n">
-        <v>-870634.6853000002</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4581,15 @@
         <v>10.101</v>
       </c>
       <c r="G124" t="n">
-        <v>-870624.5843000002</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4611,15 @@
         <v>6157.9702</v>
       </c>
       <c r="G125" t="n">
-        <v>-870624.5843000002</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4641,15 @@
         <v>61598.6268</v>
       </c>
       <c r="G126" t="n">
-        <v>-809025.9575000003</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4671,15 @@
         <v>12.3212</v>
       </c>
       <c r="G127" t="n">
-        <v>-809013.6363000002</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4701,15 @@
         <v>64575.331</v>
       </c>
       <c r="G128" t="n">
-        <v>-873588.9673000003</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4731,15 @@
         <v>40052.1551</v>
       </c>
       <c r="G129" t="n">
-        <v>-833536.8122000003</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4761,15 @@
         <v>10</v>
       </c>
       <c r="G130" t="n">
-        <v>-833536.8122000003</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4791,15 @@
         <v>7734.9146</v>
       </c>
       <c r="G131" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4821,15 @@
         <v>4132.52</v>
       </c>
       <c r="G132" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4851,15 @@
         <v>77582.32919999999</v>
       </c>
       <c r="G133" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4881,15 @@
         <v>3760</v>
       </c>
       <c r="G134" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H134" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4911,15 @@
         <v>383.3333</v>
       </c>
       <c r="G135" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H135" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4941,15 @@
         <v>3760</v>
       </c>
       <c r="G136" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H136" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4971,15 @@
         <v>9326.6666</v>
       </c>
       <c r="G137" t="n">
-        <v>-825801.8976000003</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +5001,15 @@
         <v>69083.9457</v>
       </c>
       <c r="G138" t="n">
-        <v>-894885.8433000003</v>
-      </c>
-      <c r="H138" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +5031,15 @@
         <v>98335.29829999999</v>
       </c>
       <c r="G139" t="n">
-        <v>-796550.5450000003</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +5061,15 @@
         <v>11389.53</v>
       </c>
       <c r="G140" t="n">
-        <v>-796550.5450000003</v>
-      </c>
-      <c r="H140" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +5091,15 @@
         <v>11834.46</v>
       </c>
       <c r="G141" t="n">
-        <v>-808385.0050000002</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +5121,15 @@
         <v>132198.0024</v>
       </c>
       <c r="G142" t="n">
-        <v>-808385.0050000002</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +5151,15 @@
         <v>116676.8321</v>
       </c>
       <c r="G143" t="n">
-        <v>-808385.0050000002</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +5181,15 @@
         <v>29869.8273</v>
       </c>
       <c r="G144" t="n">
-        <v>-808385.0050000002</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +5211,15 @@
         <v>55317.7758</v>
       </c>
       <c r="G145" t="n">
-        <v>-863702.7808000003</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,22 +5241,15 @@
         <v>27611.6508</v>
       </c>
       <c r="G146" t="n">
-        <v>-863702.7808000003</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J146" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5237,26 +5271,15 @@
         <v>11805.0783</v>
       </c>
       <c r="G147" t="n">
-        <v>-863702.7808000003</v>
-      </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J147" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5278,26 +5301,15 @@
         <v>75990.4768</v>
       </c>
       <c r="G148" t="n">
-        <v>-939693.2576000004</v>
-      </c>
-      <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="J148" t="n">
-        <v>11.3</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5319,22 +5331,15 @@
         <v>22321.4285</v>
       </c>
       <c r="G149" t="n">
-        <v>-939693.2576000004</v>
-      </c>
-      <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="J149" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5356,26 +5361,19 @@
         <v>56642.6157</v>
       </c>
       <c r="G150" t="n">
-        <v>-939693.2576000004</v>
+        <v>1</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="I150" t="n">
         <v>11.2</v>
       </c>
-      <c r="J150" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5397,26 +5395,23 @@
         <v>110768.0985</v>
       </c>
       <c r="G151" t="n">
-        <v>-939693.2576000004</v>
+        <v>1</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>11.2</v>
       </c>
       <c r="I151" t="n">
         <v>11.2</v>
       </c>
-      <c r="J151" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="K151" t="inlineStr">
+      <c r="J151" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
